--- a/docs/odh/obf-ResearchStudy.xlsx
+++ b/docs/odh/obf-ResearchStudy.xlsx
@@ -683,7 +683,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Group)
+    <t xml:space="preserve">Reference(Group)
 </t>
   </si>
   <si>
@@ -740,7 +740,7 @@
     <t>ResearchStudy.sponsor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization)
 </t>
   </si>
   <si>
@@ -765,7 +765,7 @@
     <t>ResearchStudy.principalInvestigator</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Practitioner)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner)
 </t>
   </si>
   <si>
@@ -784,7 +784,7 @@
     <t>ResearchStudy.site</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-location)
 </t>
   </si>
   <si>
@@ -830,7 +830,7 @@
     <t>ResearchStudy.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {http://hl7.org/fhir/us/odh/StructureDefinition/obf-Annotation}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
